--- a/src/models/baselines/LR/results/synthetic/position-topology/metrics.xlsx
+++ b/src/models/baselines/LR/results/synthetic/position-topology/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="C2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7134715463466446</v>
+        <v>0.7216392972480953</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.57</v>
+        <v>0.585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.57</v>
+        <v>0.585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7164068583942896</v>
+        <v>0.7326675462967686</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>0.595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7049336933468905</v>
+        <v>0.7086327306280173</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311633334806941</v>
+        <v>0.7440933858844306</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6881699953184635</v>
+        <v>0.6886999271131242</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7283646134785177</v>
+        <v>0.7333966984399035</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.585</v>
+        <v>0.615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.585</v>
+        <v>0.615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.726840847029378</v>
+        <v>0.7257676642986933</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="C9" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7198463141118286</v>
+        <v>0.7232789685656927</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.575</v>
+        <v>0.605</v>
       </c>
       <c r="C10" t="n">
-        <v>0.575</v>
+        <v>0.605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7180743015385591</v>
+        <v>0.7366032108765809</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7253097125445908</v>
+        <v>0.7500362734062657</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5780000000000001</v>
+        <v>0.5915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5780000000000001</v>
+        <v>0.5915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7172581215589856</v>
+        <v>0.7264815702757572</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0158464857653396</v>
+        <v>0.02848488878140283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0158464857653396</v>
+        <v>0.02848488878140283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0128832541454669</v>
+        <v>0.01774442184112679</v>
       </c>
     </row>
   </sheetData>
